--- a/MySurvivorsGame/Assets/StreamingAssets/LevelData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/LevelData.xlsx
@@ -327,7 +327,7 @@
         <v>0.0</v>
       </c>
       <c r="B4" s="2">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -335,7 +335,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="2">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
@@ -343,7 +343,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
@@ -351,7 +351,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="2">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
@@ -359,7 +359,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="2">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9">
@@ -367,7 +367,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="2">
-        <v>10.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="10">
@@ -375,7 +375,7 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="2">
-        <v>10.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="11">
@@ -383,7 +383,7 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="2">
-        <v>10.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="12">
@@ -391,7 +391,7 @@
         <v>8.0</v>
       </c>
       <c r="B12" s="2">
-        <v>10.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="13">
@@ -399,7 +399,7 @@
         <v>9.0</v>
       </c>
       <c r="B13" s="2">
-        <v>10.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="14">
@@ -407,7 +407,7 @@
         <v>10.0</v>
       </c>
       <c r="B14" s="2">
-        <v>10.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="15">
@@ -415,7 +415,7 @@
         <v>11.0</v>
       </c>
       <c r="B15" s="2">
-        <v>20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="16">
@@ -423,7 +423,7 @@
         <v>12.0</v>
       </c>
       <c r="B16" s="2">
-        <v>20.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="17">
@@ -431,7 +431,7 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="2">
-        <v>20.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="18">
@@ -439,7 +439,7 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="2">
-        <v>20.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="19">
@@ -447,7 +447,7 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="2">
-        <v>20.0</v>
+        <v>1440.0</v>
       </c>
     </row>
     <row r="20">
@@ -455,7 +455,7 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="2">
-        <v>20.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="21">
@@ -463,7 +463,7 @@
         <v>17.0</v>
       </c>
       <c r="B21" s="2">
-        <v>20.0</v>
+        <v>2480.0</v>
       </c>
     </row>
     <row r="22">
@@ -471,7 +471,7 @@
         <v>18.0</v>
       </c>
       <c r="B22" s="2">
-        <v>20.0</v>
+        <v>2960.0</v>
       </c>
     </row>
     <row r="23">
@@ -479,7 +479,7 @@
         <v>19.0</v>
       </c>
       <c r="B23" s="2">
-        <v>20.0</v>
+        <v>3440.0</v>
       </c>
     </row>
     <row r="24">
@@ -487,7 +487,7 @@
         <v>20.0</v>
       </c>
       <c r="B24" s="2">
-        <v>20.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="25">
@@ -495,7 +495,7 @@
         <v>21.0</v>
       </c>
       <c r="B25" s="2">
-        <v>30.0</v>
+        <v>5360.0</v>
       </c>
     </row>
     <row r="26">
@@ -503,7 +503,7 @@
         <v>22.0</v>
       </c>
       <c r="B26" s="2">
-        <v>30.0</v>
+        <v>6320.0</v>
       </c>
     </row>
     <row r="27">
@@ -511,7 +511,7 @@
         <v>23.0</v>
       </c>
       <c r="B27" s="2">
-        <v>30.0</v>
+        <v>8240.0</v>
       </c>
     </row>
     <row r="28">
@@ -519,7 +519,7 @@
         <v>24.0</v>
       </c>
       <c r="B28" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="29">
@@ -527,7 +527,7 @@
         <v>25.0</v>
       </c>
       <c r="B29" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="30">
@@ -535,7 +535,7 @@
         <v>26.0</v>
       </c>
       <c r="B30" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="31">
@@ -543,7 +543,7 @@
         <v>27.0</v>
       </c>
       <c r="B31" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="32">
@@ -551,7 +551,7 @@
         <v>28.0</v>
       </c>
       <c r="B32" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="33">
@@ -559,7 +559,7 @@
         <v>29.0</v>
       </c>
       <c r="B33" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="34">
@@ -567,7 +567,7 @@
         <v>30.0</v>
       </c>
       <c r="B34" s="2">
-        <v>30.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="35">
@@ -575,7 +575,7 @@
         <v>31.0</v>
       </c>
       <c r="B35" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="36">
@@ -583,7 +583,7 @@
         <v>32.0</v>
       </c>
       <c r="B36" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="37">
@@ -591,7 +591,7 @@
         <v>33.0</v>
       </c>
       <c r="B37" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="38">
@@ -599,7 +599,7 @@
         <v>34.0</v>
       </c>
       <c r="B38" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="39">
@@ -607,7 +607,7 @@
         <v>35.0</v>
       </c>
       <c r="B39" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="40">
@@ -615,7 +615,7 @@
         <v>36.0</v>
       </c>
       <c r="B40" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="41">
@@ -623,7 +623,7 @@
         <v>37.0</v>
       </c>
       <c r="B41" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="42">
@@ -631,7 +631,7 @@
         <v>38.0</v>
       </c>
       <c r="B42" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="43">
@@ -639,7 +639,7 @@
         <v>39.0</v>
       </c>
       <c r="B43" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="44">
@@ -647,7 +647,7 @@
         <v>40.0</v>
       </c>
       <c r="B44" s="2">
-        <v>40.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="45">
@@ -655,7 +655,7 @@
         <v>41.0</v>
       </c>
       <c r="B45" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="46">
@@ -663,7 +663,7 @@
         <v>42.0</v>
       </c>
       <c r="B46" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="47">
@@ -671,7 +671,7 @@
         <v>43.0</v>
       </c>
       <c r="B47" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="48">
@@ -679,7 +679,7 @@
         <v>44.0</v>
       </c>
       <c r="B48" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="49">
@@ -687,7 +687,7 @@
         <v>45.0</v>
       </c>
       <c r="B49" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="50">
@@ -695,7 +695,7 @@
         <v>46.0</v>
       </c>
       <c r="B50" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="51">
@@ -703,7 +703,7 @@
         <v>47.0</v>
       </c>
       <c r="B51" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="52">
@@ -711,7 +711,7 @@
         <v>48.0</v>
       </c>
       <c r="B52" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="53">
@@ -719,7 +719,7 @@
         <v>49.0</v>
       </c>
       <c r="B53" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="54">
@@ -727,7 +727,7 @@
         <v>50.0</v>
       </c>
       <c r="B54" s="2">
-        <v>50.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="55">
@@ -735,7 +735,7 @@
         <v>51.0</v>
       </c>
       <c r="B55" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="56">
@@ -743,7 +743,7 @@
         <v>52.0</v>
       </c>
       <c r="B56" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="57">
@@ -751,7 +751,7 @@
         <v>53.0</v>
       </c>
       <c r="B57" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="58">
@@ -759,7 +759,7 @@
         <v>54.0</v>
       </c>
       <c r="B58" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="59">
@@ -767,7 +767,7 @@
         <v>55.0</v>
       </c>
       <c r="B59" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="60">
@@ -775,7 +775,7 @@
         <v>56.0</v>
       </c>
       <c r="B60" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="61">
@@ -783,7 +783,7 @@
         <v>57.0</v>
       </c>
       <c r="B61" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="62">
@@ -791,7 +791,7 @@
         <v>58.0</v>
       </c>
       <c r="B62" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="63">
@@ -799,7 +799,7 @@
         <v>59.0</v>
       </c>
       <c r="B63" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="64">
@@ -807,7 +807,7 @@
         <v>60.0</v>
       </c>
       <c r="B64" s="2">
-        <v>60.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="65">
@@ -815,7 +815,7 @@
         <v>61.0</v>
       </c>
       <c r="B65" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="66">
@@ -823,7 +823,7 @@
         <v>62.0</v>
       </c>
       <c r="B66" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="67">
@@ -831,7 +831,7 @@
         <v>63.0</v>
       </c>
       <c r="B67" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="68">
@@ -839,7 +839,7 @@
         <v>64.0</v>
       </c>
       <c r="B68" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="69">
@@ -847,7 +847,7 @@
         <v>65.0</v>
       </c>
       <c r="B69" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="70">
@@ -855,7 +855,7 @@
         <v>66.0</v>
       </c>
       <c r="B70" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="71">
@@ -863,7 +863,7 @@
         <v>67.0</v>
       </c>
       <c r="B71" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="72">
@@ -871,7 +871,7 @@
         <v>68.0</v>
       </c>
       <c r="B72" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="73">
@@ -879,7 +879,7 @@
         <v>69.0</v>
       </c>
       <c r="B73" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="74">
@@ -887,7 +887,7 @@
         <v>70.0</v>
       </c>
       <c r="B74" s="2">
-        <v>70.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="75">
@@ -895,7 +895,7 @@
         <v>71.0</v>
       </c>
       <c r="B75" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="76">
@@ -903,7 +903,7 @@
         <v>72.0</v>
       </c>
       <c r="B76" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="77">
@@ -911,7 +911,7 @@
         <v>73.0</v>
       </c>
       <c r="B77" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="78">
@@ -919,7 +919,7 @@
         <v>74.0</v>
       </c>
       <c r="B78" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="79">
@@ -927,7 +927,7 @@
         <v>75.0</v>
       </c>
       <c r="B79" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="80">
@@ -935,7 +935,7 @@
         <v>76.0</v>
       </c>
       <c r="B80" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="81">
@@ -943,7 +943,7 @@
         <v>77.0</v>
       </c>
       <c r="B81" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="82">
@@ -951,7 +951,7 @@
         <v>78.0</v>
       </c>
       <c r="B82" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="83">
@@ -959,7 +959,7 @@
         <v>79.0</v>
       </c>
       <c r="B83" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="84">
@@ -967,7 +967,7 @@
         <v>80.0</v>
       </c>
       <c r="B84" s="2">
-        <v>80.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="85">
@@ -975,7 +975,7 @@
         <v>81.0</v>
       </c>
       <c r="B85" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="86">
@@ -983,7 +983,7 @@
         <v>82.0</v>
       </c>
       <c r="B86" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="87">
@@ -991,7 +991,7 @@
         <v>83.0</v>
       </c>
       <c r="B87" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="88">
@@ -999,7 +999,7 @@
         <v>84.0</v>
       </c>
       <c r="B88" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="89">
@@ -1007,7 +1007,7 @@
         <v>85.0</v>
       </c>
       <c r="B89" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="90">
@@ -1015,7 +1015,7 @@
         <v>86.0</v>
       </c>
       <c r="B90" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="91">
@@ -1023,7 +1023,7 @@
         <v>87.0</v>
       </c>
       <c r="B91" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="92">
@@ -1031,7 +1031,7 @@
         <v>88.0</v>
       </c>
       <c r="B92" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="93">
@@ -1039,7 +1039,7 @@
         <v>89.0</v>
       </c>
       <c r="B93" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="94">
@@ -1047,7 +1047,7 @@
         <v>90.0</v>
       </c>
       <c r="B94" s="2">
-        <v>90.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="95">
@@ -1055,7 +1055,7 @@
         <v>91.0</v>
       </c>
       <c r="B95" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="96">
@@ -1063,7 +1063,7 @@
         <v>92.0</v>
       </c>
       <c r="B96" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="97">
@@ -1071,7 +1071,7 @@
         <v>93.0</v>
       </c>
       <c r="B97" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="98">
@@ -1079,7 +1079,7 @@
         <v>94.0</v>
       </c>
       <c r="B98" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="99">
@@ -1087,7 +1087,7 @@
         <v>95.0</v>
       </c>
       <c r="B99" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="100">
@@ -1095,7 +1095,7 @@
         <v>96.0</v>
       </c>
       <c r="B100" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="101">
@@ -1103,7 +1103,7 @@
         <v>97.0</v>
       </c>
       <c r="B101" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="102">
@@ -1111,7 +1111,7 @@
         <v>98.0</v>
       </c>
       <c r="B102" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="103">
@@ -1119,7 +1119,7 @@
         <v>99.0</v>
       </c>
       <c r="B103" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="104">
@@ -1127,7 +1127,7 @@
         <v>100.0</v>
       </c>
       <c r="B104" s="2">
-        <v>100.0</v>
+        <v>10160.0</v>
       </c>
     </row>
   </sheetData>
